--- a/BackTest/2020-01-20 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-20 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-69159.11671609001</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-72656.99311609</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-71526.01288465</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-74833.28248465</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-71946.72998465</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-88431.87318465</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-88529.41348464999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-79860.65118464999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-79860.65118464999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-78978.65118464999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-86780.98828465</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-88050.98238464999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-84470.96328464999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-84470.96328464999</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-84470.96328464999</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-84470.96328464999</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-87432.84588464999</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-76220.16758464999</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-76220.16758464999</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-78405.16758464999</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-78405.16758464999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-79342.16758464999</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-88512.17748464999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-87684.68808464998</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-87904.10118464999</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-60785.4868803</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-61890.9832803</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-60948.80637831</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-60605.70637831</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-61000.22037831</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-61607.44237831001</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-61751.99157831001</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-61782.36217831001</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-63315.43767831001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-63609.13767831001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-66867.00847831</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-66867.00847831</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-69982.65327831</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-69911.38727830999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-69911.38727830999</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-68975.38727830999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-69111.38727830999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-69237.81647830999</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-70081.32397831</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-66320.32397831</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-66320.32397831</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-66320.32397831</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-66320.32397831</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-68307.29407831001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-71537.10987831</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-71537.10987831</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-65617.25167831</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-64372.02577831</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-64516.67167831001</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-64355.50787831</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-62687.91907831001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-62628.91907831001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-64142.97917831001</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-64142.97917831001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-64142.97917831001</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-64181.66557831001</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-64181.66557831001</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-64181.66557831001</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-64181.66557831001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-63227.79567831001</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-63395.75297831001</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-63395.75297831001</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-66861.22467831001</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-66873.59717831001</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-62863.08047831001</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-60570.55367831001</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-66976.67957831001</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-65466.67957831001</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-65466.67957831001</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-65393.53757831001</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-65541.53757831</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-65541.53757831</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-65540.23757831</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-65540.23757831</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-66354.76747830999</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-69228.96337831</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-72231.28907831</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-78126.90667831</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-78126.90667831</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-78126.90667831</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-88278.58487830999</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-88268.58487830999</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-89321.44407831</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-89258.30197831</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-88780.62477831</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-88862.26917831</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-88862.26917831</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-88862.26917831</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-87942.26917831</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-88007.29097831</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-87909.29097831</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-87909.29097831</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-87909.29097831</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-88227.89017831</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-88175.49407831</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-88175.49407831</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-91128.99607831</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-91128.99607831</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-91128.99607831</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-94404.97757830999</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-93940.81117830999</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-73690.14144831998</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-71375.75974831998</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-72065.95604831997</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-70917.24224831998</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-69706.50884831997</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-64402.41989565996</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-63671.87549565997</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-55975.46743693997</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-51226.53923693996</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-41041.67563693997</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-60677.20767711996</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-38137.07837057997</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-65521.60428115997</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-56110.75113248997</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-77067.46873248997</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-89437.55603248997</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-89437.55603248997</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-89437.55603248997</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-83402.13723248997</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-85877.40073248997</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-87798.14233248997</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-87798.14233248997</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-87710.31253248996</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-88203.59053248996</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-92555.89303248997</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-88047.71693248997</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-88047.71693248997</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-101781.17583249</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-105767.22748954</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-105767.22748954</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-136843.32428954</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-136016.67388954</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-134679.63238954</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-132023.07418954</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-134364.30918954</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-139747.79028954</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-139111.60231962</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-142069.38401962</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-142069.38401962</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-142069.38401962</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-138867.38401962</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-139397.38401962</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-140607.27461962</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-137535.36441962</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-137535.36441962</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-136183.89741962</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-140718.72361962</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-138759.01751962</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-138759.01751962</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-138357.7992196199</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-139330.5056196199</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-138385.5691196199</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-141029.7516196199</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-143672.1547196199</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-144705.6401196199</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -15433,10 +15433,14 @@
         <v>-213932.93855599</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>375</v>
+      </c>
+      <c r="J456" t="n">
+        <v>375</v>
+      </c>
       <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
@@ -15466,11 +15470,19 @@
         <v>-214248.67905599</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>374</v>
+      </c>
+      <c r="J457" t="n">
+        <v>375</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15499,11 +15511,19 @@
         <v>-215194.85985599</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>372.3</v>
+      </c>
+      <c r="J458" t="n">
+        <v>375</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15532,11 +15552,19 @@
         <v>-215194.85985599</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>369.1</v>
+      </c>
+      <c r="J459" t="n">
+        <v>375</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15565,11 +15593,19 @@
         <v>-214574.85985599</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>369.1</v>
+      </c>
+      <c r="J460" t="n">
+        <v>375</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15598,11 +15634,19 @@
         <v>-220229.98315599</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>373</v>
+      </c>
+      <c r="J461" t="n">
+        <v>375</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15631,11 +15675,19 @@
         <v>-223217.50875599</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>369.1</v>
+      </c>
+      <c r="J462" t="n">
+        <v>375</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15664,11 +15716,19 @@
         <v>-223217.50875599</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>368.1</v>
+      </c>
+      <c r="J463" t="n">
+        <v>375</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15697,11 +15757,19 @@
         <v>-222175.07875599</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>368.1</v>
+      </c>
+      <c r="J464" t="n">
+        <v>375</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15730,11 +15798,19 @@
         <v>-221499.88115599</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>369.1</v>
+      </c>
+      <c r="J465" t="n">
+        <v>375</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15763,11 +15839,19 @@
         <v>-223633.14605599</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>374.5</v>
+      </c>
+      <c r="J466" t="n">
+        <v>375</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15796,11 +15880,19 @@
         <v>-223633.14605599</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>373.5</v>
+      </c>
+      <c r="J467" t="n">
+        <v>375</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15829,11 +15921,19 @@
         <v>-224060.29535599</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>373.5</v>
+      </c>
+      <c r="J468" t="n">
+        <v>375</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15862,11 +15962,19 @@
         <v>-224543.15165599</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>373.3</v>
+      </c>
+      <c r="J469" t="n">
+        <v>375</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15895,11 +16003,19 @@
         <v>-224289.78065599</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>372.8</v>
+      </c>
+      <c r="J470" t="n">
+        <v>375</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15928,11 +16044,19 @@
         <v>-223756.63425599</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>373.4</v>
+      </c>
+      <c r="J471" t="n">
+        <v>375</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -15961,11 +16085,19 @@
         <v>-223756.63425599</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>373.5</v>
+      </c>
+      <c r="J472" t="n">
+        <v>375</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -15994,11 +16126,19 @@
         <v>-224247.80925599</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>373.5</v>
+      </c>
+      <c r="J473" t="n">
+        <v>375</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16027,11 +16167,19 @@
         <v>-224667.80915599</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>372.8</v>
+      </c>
+      <c r="J474" t="n">
+        <v>375</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16060,11 +16208,19 @@
         <v>-224444.75755599</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>372.7</v>
+      </c>
+      <c r="J475" t="n">
+        <v>375</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16093,11 +16249,19 @@
         <v>-226982.41495599</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>373.3</v>
+      </c>
+      <c r="J476" t="n">
+        <v>375</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16126,11 +16290,19 @@
         <v>-226982.41495599</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>372</v>
+      </c>
+      <c r="J477" t="n">
+        <v>375</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16159,11 +16331,19 @@
         <v>-222608.10305599</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>372</v>
+      </c>
+      <c r="J478" t="n">
+        <v>375</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16192,11 +16372,19 @@
         <v>-222413.19245599</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>373.6</v>
+      </c>
+      <c r="J479" t="n">
+        <v>375</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16228,8 +16416,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>375</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16261,8 +16455,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>375</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16294,8 +16494,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>375</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16327,8 +16533,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>375</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16357,11 +16569,19 @@
         <v>-231557.71425599</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>365</v>
+      </c>
+      <c r="J484" t="n">
+        <v>375</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16390,11 +16610,19 @@
         <v>-232392.79235599</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>368</v>
+      </c>
+      <c r="J485" t="n">
+        <v>375</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16423,11 +16651,19 @@
         <v>-232900.16805599</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>366.9</v>
+      </c>
+      <c r="J486" t="n">
+        <v>375</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16456,11 +16692,19 @@
         <v>-233812.22395599</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>366.8</v>
+      </c>
+      <c r="J487" t="n">
+        <v>375</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16489,11 +16733,19 @@
         <v>-233388.69840257</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>365</v>
+      </c>
+      <c r="J488" t="n">
+        <v>375</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16522,11 +16774,19 @@
         <v>-233287.95550257</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>365.9</v>
+      </c>
+      <c r="J489" t="n">
+        <v>375</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16555,11 +16815,19 @@
         <v>-233323.95550257</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>367</v>
+      </c>
+      <c r="J490" t="n">
+        <v>375</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16588,15 +16856,17 @@
         <v>-233081.85550257</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I491" t="n">
         <v>366.8</v>
       </c>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>375</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L491" t="n">
@@ -16627,12 +16897,14 @@
         <v>-232979.85550257</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I492" t="n">
         <v>366.9</v>
       </c>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>375</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16666,12 +16938,14 @@
         <v>-233226.88340257</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I493" t="n">
         <v>367.9</v>
       </c>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>375</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16705,12 +16979,14 @@
         <v>-233147.51410257</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I494" t="n">
         <v>367</v>
       </c>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>375</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16744,12 +17020,14 @@
         <v>-232913.57410257</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I495" t="n">
         <v>367.8</v>
       </c>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>375</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16783,12 +17061,14 @@
         <v>-233316.96410257</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I496" t="n">
         <v>379.1</v>
       </c>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>375</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16822,10 +17102,14 @@
         <v>-233047.57410257</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>369</v>
+      </c>
+      <c r="J497" t="n">
+        <v>375</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16859,12 +17143,14 @@
         <v>-233047.57410257</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I498" t="n">
         <v>369.9</v>
       </c>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>375</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16898,12 +17184,14 @@
         <v>-233788.57410257</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I499" t="n">
         <v>369.9</v>
       </c>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>375</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16937,12 +17225,14 @@
         <v>-233777.57410257</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I500" t="n">
         <v>369.8</v>
       </c>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>375</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16976,10 +17266,14 @@
         <v>-234346.65210257</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>374.9</v>
+      </c>
+      <c r="J501" t="n">
+        <v>375</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17013,10 +17307,14 @@
         <v>-234092.77750257</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>370.2</v>
+      </c>
+      <c r="J502" t="n">
+        <v>375</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17050,10 +17348,14 @@
         <v>-238384.98700257</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>372.3</v>
+      </c>
+      <c r="J503" t="n">
+        <v>375</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17087,10 +17389,14 @@
         <v>-238379.98700257</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>372.2</v>
+      </c>
+      <c r="J504" t="n">
+        <v>375</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17102,6 +17408,6 @@
       <c r="M504" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-20 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-69159.11671609001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-72656.99311609</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-71526.01288465</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-74833.28248465</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-71946.72998465</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-76220.16758464999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-78405.16758464999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-78405.16758464999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-87684.68808464998</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-87684.68808464998</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-87904.10118464999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-63315.43767831001</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-63609.13767831001</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-66867.00847831</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-66867.00847831</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-69982.65327831</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-69911.38727830999</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-69911.38727830999</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-68975.38727830999</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-69111.38727830999</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-69237.81647830999</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-70081.32397831</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-66320.32397831</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-66320.32397831</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-66320.32397831</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-66320.32397831</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-68307.29407831001</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-71537.10987831</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-71537.10987831</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-65617.25167831</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-64372.02577831</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-64516.67167831001</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-64355.50787831</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-62687.91907831001</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-62628.91907831001</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-64142.97917831001</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-64142.97917831001</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-64142.97917831001</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-64181.66557831001</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-64181.66557831001</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-64181.66557831001</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-64181.66557831001</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-63227.79567831001</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-63395.75297831001</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-63395.75297831001</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-66861.22467831001</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-66873.59717831001</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-62863.08047831001</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-60570.55367831001</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-66976.67957831001</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-65466.67957831001</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-65466.67957831001</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-65393.53757831001</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-65541.53757831</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-65541.53757831</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-65540.23757831</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-65540.23757831</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-66354.76747830999</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-69228.96337831</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-72231.28907831</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-78126.90667831</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-78126.90667831</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-78126.90667831</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-88278.58487830999</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-88268.58487830999</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-89321.44407831</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-89258.30197831</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-88780.62477831</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-88862.26917831</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-88862.26917831</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-88862.26917831</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-87942.26917831</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-88007.29097831</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-87909.29097831</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-87909.29097831</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-87909.29097831</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-88227.89017831</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-88175.49407831</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-88175.49407831</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-91128.99607831</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-91128.99607831</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-91128.99607831</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-94404.97757830999</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-93940.81117830999</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-71375.75974831998</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-72065.95604831997</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-70917.24224831998</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-69706.50884831997</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-64402.41989565996</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-63671.87549565997</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-55975.46743693997</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-51226.53923693996</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-41041.67563693997</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-60677.20767711996</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-38137.07837057997</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-65521.60428115997</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-56110.75113248997</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-77067.46873248997</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-89437.55603248997</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-89437.55603248997</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-89437.55603248997</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-83402.13723248997</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-85877.40073248997</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-87798.14233248997</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-87798.14233248997</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-87710.31253248996</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-88203.59053248996</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-92555.89303248997</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-88047.71693248997</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-88047.71693248997</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-101781.17583249</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-105767.22748954</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-105767.22748954</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-136843.32428954</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-136016.67388954</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-134679.63238954</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-132023.07418954</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-134364.30918954</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-139747.79028954</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-139111.60231962</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-142069.38401962</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-142069.38401962</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-142069.38401962</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-138867.38401962</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-139397.38401962</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-140607.27461962</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-137535.36441962</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-137535.36441962</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-136183.89741962</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-140718.72361962</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-138759.01751962</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-138759.01751962</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-138357.7992196199</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-139330.5056196199</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-138385.5691196199</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-141029.7516196199</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-143672.1547196199</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-144705.6401196199</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -15235,11 +15235,17 @@
         <v>-214863.73645599</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>377.2</v>
+      </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15268,11 +15274,17 @@
         <v>-214835.77335599</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>380.8</v>
+      </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15301,11 +15313,17 @@
         <v>-216760.05945599</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>381</v>
+      </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15334,11 +15352,17 @@
         <v>-211127.33535599</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>374</v>
+      </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15367,11 +15391,17 @@
         <v>-208623.89235599</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>375</v>
+      </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15400,11 +15430,17 @@
         <v>-213587.22555599</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>375.1</v>
+      </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15438,10 +15474,12 @@
       <c r="I456" t="n">
         <v>375</v>
       </c>
-      <c r="J456" t="n">
-        <v>375</v>
-      </c>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15475,12 +15513,10 @@
       <c r="I457" t="n">
         <v>374</v>
       </c>
-      <c r="J457" t="n">
-        <v>375</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L457" t="n">
@@ -15516,9 +15552,7 @@
       <c r="I458" t="n">
         <v>372.3</v>
       </c>
-      <c r="J458" t="n">
-        <v>375</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15557,9 +15591,7 @@
       <c r="I459" t="n">
         <v>369.1</v>
       </c>
-      <c r="J459" t="n">
-        <v>375</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15598,9 +15630,7 @@
       <c r="I460" t="n">
         <v>369.1</v>
       </c>
-      <c r="J460" t="n">
-        <v>375</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15639,9 +15669,7 @@
       <c r="I461" t="n">
         <v>373</v>
       </c>
-      <c r="J461" t="n">
-        <v>375</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15680,9 +15708,7 @@
       <c r="I462" t="n">
         <v>369.1</v>
       </c>
-      <c r="J462" t="n">
-        <v>375</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15721,9 +15747,7 @@
       <c r="I463" t="n">
         <v>368.1</v>
       </c>
-      <c r="J463" t="n">
-        <v>375</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15762,9 +15786,7 @@
       <c r="I464" t="n">
         <v>368.1</v>
       </c>
-      <c r="J464" t="n">
-        <v>375</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15803,9 +15825,7 @@
       <c r="I465" t="n">
         <v>369.1</v>
       </c>
-      <c r="J465" t="n">
-        <v>375</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15844,9 +15864,7 @@
       <c r="I466" t="n">
         <v>374.5</v>
       </c>
-      <c r="J466" t="n">
-        <v>375</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15885,9 +15903,7 @@
       <c r="I467" t="n">
         <v>373.5</v>
       </c>
-      <c r="J467" t="n">
-        <v>375</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15926,9 +15942,7 @@
       <c r="I468" t="n">
         <v>373.5</v>
       </c>
-      <c r="J468" t="n">
-        <v>375</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15967,9 +15981,7 @@
       <c r="I469" t="n">
         <v>373.3</v>
       </c>
-      <c r="J469" t="n">
-        <v>375</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16008,9 +16020,7 @@
       <c r="I470" t="n">
         <v>372.8</v>
       </c>
-      <c r="J470" t="n">
-        <v>375</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16049,9 +16059,7 @@
       <c r="I471" t="n">
         <v>373.4</v>
       </c>
-      <c r="J471" t="n">
-        <v>375</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16090,9 +16098,7 @@
       <c r="I472" t="n">
         <v>373.5</v>
       </c>
-      <c r="J472" t="n">
-        <v>375</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16131,9 +16137,7 @@
       <c r="I473" t="n">
         <v>373.5</v>
       </c>
-      <c r="J473" t="n">
-        <v>375</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16167,14 +16171,10 @@
         <v>-224667.80915599</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
-      </c>
-      <c r="I474" t="n">
-        <v>372.8</v>
-      </c>
-      <c r="J474" t="n">
-        <v>375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16208,14 +16208,10 @@
         <v>-224444.75755599</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
-      </c>
-      <c r="I475" t="n">
-        <v>372.7</v>
-      </c>
-      <c r="J475" t="n">
-        <v>375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16249,14 +16245,10 @@
         <v>-226982.41495599</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
-      </c>
-      <c r="I476" t="n">
-        <v>373.3</v>
-      </c>
-      <c r="J476" t="n">
-        <v>375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16290,14 +16282,10 @@
         <v>-226982.41495599</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
-      </c>
-      <c r="I477" t="n">
-        <v>372</v>
-      </c>
-      <c r="J477" t="n">
-        <v>375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16331,14 +16319,10 @@
         <v>-222608.10305599</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
-      </c>
-      <c r="I478" t="n">
-        <v>372</v>
-      </c>
-      <c r="J478" t="n">
-        <v>375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16372,14 +16356,10 @@
         <v>-222413.19245599</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
-      </c>
-      <c r="I479" t="n">
-        <v>373.6</v>
-      </c>
-      <c r="J479" t="n">
-        <v>375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16416,9 +16396,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>375</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16455,9 +16433,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>375</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16494,9 +16470,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>375</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16533,9 +16507,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>375</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16569,14 +16541,10 @@
         <v>-231557.71425599</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
-      </c>
-      <c r="I484" t="n">
-        <v>365</v>
-      </c>
-      <c r="J484" t="n">
-        <v>375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16610,14 +16578,10 @@
         <v>-232392.79235599</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
-      </c>
-      <c r="I485" t="n">
-        <v>368</v>
-      </c>
-      <c r="J485" t="n">
-        <v>375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16651,14 +16615,10 @@
         <v>-232900.16805599</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
-      </c>
-      <c r="I486" t="n">
-        <v>366.9</v>
-      </c>
-      <c r="J486" t="n">
-        <v>375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16692,14 +16652,10 @@
         <v>-233812.22395599</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
-      </c>
-      <c r="I487" t="n">
-        <v>366.8</v>
-      </c>
-      <c r="J487" t="n">
-        <v>375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16733,14 +16689,10 @@
         <v>-233388.69840257</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
-      </c>
-      <c r="I488" t="n">
-        <v>365</v>
-      </c>
-      <c r="J488" t="n">
-        <v>375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16779,9 +16731,7 @@
       <c r="I489" t="n">
         <v>365.9</v>
       </c>
-      <c r="J489" t="n">
-        <v>375</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16820,9 +16770,7 @@
       <c r="I490" t="n">
         <v>367</v>
       </c>
-      <c r="J490" t="n">
-        <v>375</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16861,9 +16809,7 @@
       <c r="I491" t="n">
         <v>366.8</v>
       </c>
-      <c r="J491" t="n">
-        <v>375</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16902,9 +16848,7 @@
       <c r="I492" t="n">
         <v>366.9</v>
       </c>
-      <c r="J492" t="n">
-        <v>375</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16943,9 +16887,7 @@
       <c r="I493" t="n">
         <v>367.9</v>
       </c>
-      <c r="J493" t="n">
-        <v>375</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16984,9 +16926,7 @@
       <c r="I494" t="n">
         <v>367</v>
       </c>
-      <c r="J494" t="n">
-        <v>375</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17025,9 +16965,7 @@
       <c r="I495" t="n">
         <v>367.8</v>
       </c>
-      <c r="J495" t="n">
-        <v>375</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17061,14 +16999,10 @@
         <v>-233316.96410257</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
-      </c>
-      <c r="I496" t="n">
-        <v>379.1</v>
-      </c>
-      <c r="J496" t="n">
-        <v>375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I496" t="inlineStr"/>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17102,14 +17036,10 @@
         <v>-233047.57410257</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
-      </c>
-      <c r="I497" t="n">
-        <v>369</v>
-      </c>
-      <c r="J497" t="n">
-        <v>375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I497" t="inlineStr"/>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17143,14 +17073,10 @@
         <v>-233047.57410257</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
-      </c>
-      <c r="I498" t="n">
-        <v>369.9</v>
-      </c>
-      <c r="J498" t="n">
-        <v>375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17184,14 +17110,10 @@
         <v>-233788.57410257</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
-      </c>
-      <c r="I499" t="n">
-        <v>369.9</v>
-      </c>
-      <c r="J499" t="n">
-        <v>375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I499" t="inlineStr"/>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17225,14 +17147,10 @@
         <v>-233777.57410257</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
-      </c>
-      <c r="I500" t="n">
-        <v>369.8</v>
-      </c>
-      <c r="J500" t="n">
-        <v>375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I500" t="inlineStr"/>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17266,14 +17184,10 @@
         <v>-234346.65210257</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
-      </c>
-      <c r="I501" t="n">
-        <v>374.9</v>
-      </c>
-      <c r="J501" t="n">
-        <v>375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I501" t="inlineStr"/>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17307,14 +17221,10 @@
         <v>-234092.77750257</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
-      </c>
-      <c r="I502" t="n">
-        <v>370.2</v>
-      </c>
-      <c r="J502" t="n">
-        <v>375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I502" t="inlineStr"/>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17348,14 +17258,10 @@
         <v>-238384.98700257</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
-      </c>
-      <c r="I503" t="n">
-        <v>372.3</v>
-      </c>
-      <c r="J503" t="n">
-        <v>375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I503" t="inlineStr"/>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17389,14 +17295,10 @@
         <v>-238379.98700257</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
-      </c>
-      <c r="I504" t="n">
-        <v>372.2</v>
-      </c>
-      <c r="J504" t="n">
-        <v>375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I504" t="inlineStr"/>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17408,6 +17310,6 @@
       <c r="M504" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-20 BackTest STRAT.xlsx
@@ -451,7 +451,7 @@
         <v>-69159.11671609001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-88431.87318465</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-88529.41348464999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-79860.65118464999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-79860.65118464999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-78978.65118464999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-86780.98828465</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-88050.98238464999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-84470.96328464999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-84470.96328464999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-84470.96328464999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-84470.96328464999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-87432.84588464999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-76220.16758464999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-76220.16758464999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-78405.16758464999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-78405.16758464999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-78405.16758464999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-79342.16758464999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-88512.17748464999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-87684.68808464998</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-87684.68808464998</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-87904.10118464999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-63609.13767831001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-64516.67167831001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-62628.91907831001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-64142.97917831001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-64181.66557831001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-64181.66557831001</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-65521.60428115997</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-56110.75113248997</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-77067.46873248997</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-89437.55603248997</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-89437.55603248997</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-89437.55603248997</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-83402.13723248997</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-85877.40073248997</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-87798.14233248997</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-87798.14233248997</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-87710.31253248996</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-88203.59053248996</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-92555.89303248997</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-88047.71693248997</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -15235,1508 +15235,1310 @@
         <v>-214863.73645599</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
-      </c>
-      <c r="I450" t="n">
-        <v>377.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
+      <c r="K450" t="inlineStr"/>
+      <c r="L450" t="n">
+        <v>1</v>
+      </c>
+      <c r="M450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" t="n">
+        <v>380.8</v>
+      </c>
+      <c r="C451" t="n">
+        <v>381</v>
+      </c>
+      <c r="D451" t="n">
+        <v>381</v>
+      </c>
+      <c r="E451" t="n">
+        <v>380.8</v>
+      </c>
+      <c r="F451" t="n">
+        <v>27.9631</v>
+      </c>
+      <c r="G451" t="n">
+        <v>-214835.77335599</v>
+      </c>
+      <c r="H451" t="n">
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
+      <c r="L451" t="n">
+        <v>1</v>
+      </c>
+      <c r="M451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="n">
+        <v>380.8</v>
+      </c>
+      <c r="C452" t="n">
+        <v>374</v>
+      </c>
+      <c r="D452" t="n">
+        <v>380.8</v>
+      </c>
+      <c r="E452" t="n">
+        <v>374</v>
+      </c>
+      <c r="F452" t="n">
+        <v>1924.2861</v>
+      </c>
+      <c r="G452" t="n">
+        <v>-216760.05945599</v>
+      </c>
+      <c r="H452" t="n">
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
+      <c r="L452" t="n">
+        <v>1</v>
+      </c>
+      <c r="M452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="n">
+        <v>375</v>
+      </c>
+      <c r="C453" t="n">
+        <v>375</v>
+      </c>
+      <c r="D453" t="n">
+        <v>375</v>
+      </c>
+      <c r="E453" t="n">
+        <v>375</v>
+      </c>
+      <c r="F453" t="n">
+        <v>5632.7241</v>
+      </c>
+      <c r="G453" t="n">
+        <v>-211127.33535599</v>
+      </c>
+      <c r="H453" t="n">
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
+      <c r="L453" t="n">
+        <v>1</v>
+      </c>
+      <c r="M453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" t="n">
+        <v>375.2</v>
+      </c>
+      <c r="C454" t="n">
+        <v>375.1</v>
+      </c>
+      <c r="D454" t="n">
+        <v>375.2</v>
+      </c>
+      <c r="E454" t="n">
+        <v>375.1</v>
+      </c>
+      <c r="F454" t="n">
+        <v>2503.443</v>
+      </c>
+      <c r="G454" t="n">
+        <v>-208623.89235599</v>
+      </c>
+      <c r="H454" t="n">
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
+      <c r="L454" t="n">
+        <v>1</v>
+      </c>
+      <c r="M454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" t="n">
+        <v>375.1</v>
+      </c>
+      <c r="C455" t="n">
+        <v>375</v>
+      </c>
+      <c r="D455" t="n">
+        <v>375.1</v>
+      </c>
+      <c r="E455" t="n">
+        <v>375</v>
+      </c>
+      <c r="F455" t="n">
+        <v>4963.3332</v>
+      </c>
+      <c r="G455" t="n">
+        <v>-213587.22555599</v>
+      </c>
+      <c r="H455" t="n">
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
+      <c r="L455" t="n">
+        <v>1</v>
+      </c>
+      <c r="M455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="n">
+        <v>374</v>
+      </c>
+      <c r="C456" t="n">
+        <v>374</v>
+      </c>
+      <c r="D456" t="n">
+        <v>374</v>
+      </c>
+      <c r="E456" t="n">
+        <v>374</v>
+      </c>
+      <c r="F456" t="n">
+        <v>345.713</v>
+      </c>
+      <c r="G456" t="n">
+        <v>-213932.93855599</v>
+      </c>
+      <c r="H456" t="n">
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
+      <c r="L456" t="n">
+        <v>1</v>
+      </c>
+      <c r="M456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="n">
+        <v>372.8</v>
+      </c>
+      <c r="C457" t="n">
+        <v>372.3</v>
+      </c>
+      <c r="D457" t="n">
+        <v>372.8</v>
+      </c>
+      <c r="E457" t="n">
+        <v>372.3</v>
+      </c>
+      <c r="F457" t="n">
+        <v>315.7405</v>
+      </c>
+      <c r="G457" t="n">
+        <v>-214248.67905599</v>
+      </c>
+      <c r="H457" t="n">
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
+      <c r="L457" t="n">
+        <v>1</v>
+      </c>
+      <c r="M457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="n">
+        <v>371.7</v>
+      </c>
+      <c r="C458" t="n">
+        <v>369.1</v>
+      </c>
+      <c r="D458" t="n">
+        <v>371.7</v>
+      </c>
+      <c r="E458" t="n">
+        <v>369.1</v>
+      </c>
+      <c r="F458" t="n">
+        <v>946.1808</v>
+      </c>
+      <c r="G458" t="n">
+        <v>-215194.85985599</v>
+      </c>
+      <c r="H458" t="n">
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
+      <c r="L458" t="n">
+        <v>1</v>
+      </c>
+      <c r="M458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="n">
+        <v>369.1</v>
+      </c>
+      <c r="C459" t="n">
+        <v>369.1</v>
+      </c>
+      <c r="D459" t="n">
+        <v>369.1</v>
+      </c>
+      <c r="E459" t="n">
+        <v>369.1</v>
+      </c>
+      <c r="F459" t="n">
+        <v>828.8745</v>
+      </c>
+      <c r="G459" t="n">
+        <v>-215194.85985599</v>
+      </c>
+      <c r="H459" t="n">
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
+      <c r="L459" t="n">
+        <v>1</v>
+      </c>
+      <c r="M459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="n">
+        <v>370.8</v>
+      </c>
+      <c r="C460" t="n">
+        <v>373</v>
+      </c>
+      <c r="D460" t="n">
+        <v>373</v>
+      </c>
+      <c r="E460" t="n">
+        <v>370.8</v>
+      </c>
+      <c r="F460" t="n">
+        <v>620</v>
+      </c>
+      <c r="G460" t="n">
+        <v>-214574.85985599</v>
+      </c>
+      <c r="H460" t="n">
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
+      <c r="L460" t="n">
+        <v>1</v>
+      </c>
+      <c r="M460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="n">
+        <v>372.6</v>
+      </c>
+      <c r="C461" t="n">
+        <v>369.1</v>
+      </c>
+      <c r="D461" t="n">
+        <v>374</v>
+      </c>
+      <c r="E461" t="n">
+        <v>369.1</v>
+      </c>
+      <c r="F461" t="n">
+        <v>5655.1233</v>
+      </c>
+      <c r="G461" t="n">
+        <v>-220229.98315599</v>
+      </c>
+      <c r="H461" t="n">
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
+      <c r="L461" t="n">
+        <v>1</v>
+      </c>
+      <c r="M461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" t="n">
+        <v>369.1</v>
+      </c>
+      <c r="C462" t="n">
+        <v>368.1</v>
+      </c>
+      <c r="D462" t="n">
+        <v>369.1</v>
+      </c>
+      <c r="E462" t="n">
+        <v>368.1</v>
+      </c>
+      <c r="F462" t="n">
+        <v>2987.5256</v>
+      </c>
+      <c r="G462" t="n">
+        <v>-223217.50875599</v>
+      </c>
+      <c r="H462" t="n">
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
+      <c r="L462" t="n">
+        <v>1</v>
+      </c>
+      <c r="M462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="n">
+        <v>369.1</v>
+      </c>
+      <c r="C463" t="n">
+        <v>368.1</v>
+      </c>
+      <c r="D463" t="n">
+        <v>369.1</v>
+      </c>
+      <c r="E463" t="n">
+        <v>368.1</v>
+      </c>
+      <c r="F463" t="n">
+        <v>852</v>
+      </c>
+      <c r="G463" t="n">
+        <v>-223217.50875599</v>
+      </c>
+      <c r="H463" t="n">
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
+      <c r="L463" t="n">
+        <v>1</v>
+      </c>
+      <c r="M463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" t="n">
+        <v>369.1</v>
+      </c>
+      <c r="C464" t="n">
+        <v>369.1</v>
+      </c>
+      <c r="D464" t="n">
+        <v>369.1</v>
+      </c>
+      <c r="E464" t="n">
+        <v>369.1</v>
+      </c>
+      <c r="F464" t="n">
+        <v>1042.43</v>
+      </c>
+      <c r="G464" t="n">
+        <v>-222175.07875599</v>
+      </c>
+      <c r="H464" t="n">
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
+      <c r="L464" t="n">
+        <v>1</v>
+      </c>
+      <c r="M464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" t="n">
+        <v>370</v>
+      </c>
+      <c r="C465" t="n">
+        <v>374.5</v>
+      </c>
+      <c r="D465" t="n">
+        <v>374.5</v>
+      </c>
+      <c r="E465" t="n">
+        <v>370</v>
+      </c>
+      <c r="F465" t="n">
+        <v>675.1976</v>
+      </c>
+      <c r="G465" t="n">
+        <v>-221499.88115599</v>
+      </c>
+      <c r="H465" t="n">
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
+      <c r="L465" t="n">
+        <v>1</v>
+      </c>
+      <c r="M465" t="inlineStr"/>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B466" t="n">
+        <v>374.5</v>
+      </c>
+      <c r="C466" t="n">
+        <v>373.5</v>
+      </c>
+      <c r="D466" t="n">
+        <v>374.5</v>
+      </c>
+      <c r="E466" t="n">
+        <v>373.4</v>
+      </c>
+      <c r="F466" t="n">
+        <v>2133.2649</v>
+      </c>
+      <c r="G466" t="n">
+        <v>-223633.14605599</v>
+      </c>
+      <c r="H466" t="n">
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
+      <c r="L466" t="n">
+        <v>1</v>
+      </c>
+      <c r="M466" t="inlineStr"/>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B467" t="n">
+        <v>373.5</v>
+      </c>
+      <c r="C467" t="n">
+        <v>373.5</v>
+      </c>
+      <c r="D467" t="n">
+        <v>373.5</v>
+      </c>
+      <c r="E467" t="n">
+        <v>373.5</v>
+      </c>
+      <c r="F467" t="n">
+        <v>12.0041</v>
+      </c>
+      <c r="G467" t="n">
+        <v>-223633.14605599</v>
+      </c>
+      <c r="H467" t="n">
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
+      <c r="L467" t="n">
+        <v>1</v>
+      </c>
+      <c r="M467" t="inlineStr"/>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B468" t="n">
+        <v>373</v>
+      </c>
+      <c r="C468" t="n">
+        <v>373.3</v>
+      </c>
+      <c r="D468" t="n">
+        <v>373.3</v>
+      </c>
+      <c r="E468" t="n">
+        <v>372.9</v>
+      </c>
+      <c r="F468" t="n">
+        <v>427.1493</v>
+      </c>
+      <c r="G468" t="n">
+        <v>-224060.29535599</v>
+      </c>
+      <c r="H468" t="n">
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
+      <c r="L468" t="n">
+        <v>1</v>
+      </c>
+      <c r="M468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" t="n">
+        <v>372.8</v>
+      </c>
+      <c r="C469" t="n">
+        <v>372.8</v>
+      </c>
+      <c r="D469" t="n">
+        <v>372.8</v>
+      </c>
+      <c r="E469" t="n">
+        <v>372.8</v>
+      </c>
+      <c r="F469" t="n">
+        <v>482.8563</v>
+      </c>
+      <c r="G469" t="n">
+        <v>-224543.15165599</v>
+      </c>
+      <c r="H469" t="n">
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
+      <c r="L469" t="n">
+        <v>1</v>
+      </c>
+      <c r="M469" t="inlineStr"/>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" t="n">
+        <v>373</v>
+      </c>
+      <c r="C470" t="n">
+        <v>373.4</v>
+      </c>
+      <c r="D470" t="n">
+        <v>373.4</v>
+      </c>
+      <c r="E470" t="n">
+        <v>373</v>
+      </c>
+      <c r="F470" t="n">
+        <v>253.371</v>
+      </c>
+      <c r="G470" t="n">
+        <v>-224289.78065599</v>
+      </c>
+      <c r="H470" t="n">
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
+      <c r="L470" t="n">
+        <v>1</v>
+      </c>
+      <c r="M470" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" t="n">
+        <v>373.4</v>
+      </c>
+      <c r="C471" t="n">
+        <v>373.5</v>
+      </c>
+      <c r="D471" t="n">
+        <v>373.5</v>
+      </c>
+      <c r="E471" t="n">
+        <v>373.4</v>
+      </c>
+      <c r="F471" t="n">
+        <v>533.1464</v>
+      </c>
+      <c r="G471" t="n">
+        <v>-223756.63425599</v>
+      </c>
+      <c r="H471" t="n">
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
+      <c r="L471" t="n">
+        <v>1</v>
+      </c>
+      <c r="M471" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" t="n">
+        <v>373.5</v>
+      </c>
+      <c r="C472" t="n">
+        <v>373.5</v>
+      </c>
+      <c r="D472" t="n">
+        <v>373.5</v>
+      </c>
+      <c r="E472" t="n">
+        <v>373.5</v>
+      </c>
+      <c r="F472" t="n">
+        <v>4925.7562</v>
+      </c>
+      <c r="G472" t="n">
+        <v>-223756.63425599</v>
+      </c>
+      <c r="H472" t="n">
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
+      <c r="L472" t="n">
+        <v>1</v>
+      </c>
+      <c r="M472" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" t="n">
+        <v>372.8</v>
+      </c>
+      <c r="C473" t="n">
+        <v>372.8</v>
+      </c>
+      <c r="D473" t="n">
+        <v>372.8</v>
+      </c>
+      <c r="E473" t="n">
+        <v>372.8</v>
+      </c>
+      <c r="F473" t="n">
+        <v>491.175</v>
+      </c>
+      <c r="G473" t="n">
+        <v>-224247.80925599</v>
+      </c>
+      <c r="H473" t="n">
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
+      <c r="L473" t="n">
+        <v>1</v>
+      </c>
+      <c r="M473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" t="n">
+        <v>372.7</v>
+      </c>
+      <c r="C474" t="n">
+        <v>372.7</v>
+      </c>
+      <c r="D474" t="n">
+        <v>372.7</v>
+      </c>
+      <c r="E474" t="n">
+        <v>372.7</v>
+      </c>
+      <c r="F474" t="n">
+        <v>419.9999</v>
+      </c>
+      <c r="G474" t="n">
+        <v>-224667.80915599</v>
+      </c>
+      <c r="H474" t="n">
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
+      <c r="L474" t="n">
+        <v>1</v>
+      </c>
+      <c r="M474" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" t="n">
+        <v>372.7</v>
+      </c>
+      <c r="C475" t="n">
+        <v>373.3</v>
+      </c>
+      <c r="D475" t="n">
+        <v>373.3</v>
+      </c>
+      <c r="E475" t="n">
+        <v>372.7</v>
+      </c>
+      <c r="F475" t="n">
+        <v>223.0516</v>
+      </c>
+      <c r="G475" t="n">
+        <v>-224444.75755599</v>
+      </c>
+      <c r="H475" t="n">
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
+      <c r="L475" t="n">
+        <v>1</v>
+      </c>
+      <c r="M475" t="inlineStr"/>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" t="n">
+        <v>370</v>
+      </c>
+      <c r="C476" t="n">
+        <v>372</v>
+      </c>
+      <c r="D476" t="n">
+        <v>372</v>
+      </c>
+      <c r="E476" t="n">
+        <v>368</v>
+      </c>
+      <c r="F476" t="n">
+        <v>2537.6574</v>
+      </c>
+      <c r="G476" t="n">
+        <v>-226982.41495599</v>
+      </c>
+      <c r="H476" t="n">
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
+      <c r="L476" t="n">
+        <v>1</v>
+      </c>
+      <c r="M476" t="inlineStr"/>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" t="n">
+        <v>372</v>
+      </c>
+      <c r="C477" t="n">
+        <v>372</v>
+      </c>
+      <c r="D477" t="n">
+        <v>372</v>
+      </c>
+      <c r="E477" t="n">
+        <v>372</v>
+      </c>
+      <c r="F477" t="n">
+        <v>307.4828</v>
+      </c>
+      <c r="G477" t="n">
+        <v>-226982.41495599</v>
+      </c>
+      <c r="H477" t="n">
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
+      <c r="L477" t="n">
+        <v>1</v>
+      </c>
+      <c r="M477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" t="n">
+        <v>372</v>
+      </c>
+      <c r="C478" t="n">
+        <v>373.6</v>
+      </c>
+      <c r="D478" t="n">
+        <v>373.6</v>
+      </c>
+      <c r="E478" t="n">
+        <v>371.9</v>
+      </c>
+      <c r="F478" t="n">
+        <v>4374.3119</v>
+      </c>
+      <c r="G478" t="n">
+        <v>-222608.10305599</v>
+      </c>
+      <c r="H478" t="n">
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
+      <c r="L478" t="n">
+        <v>1</v>
+      </c>
+      <c r="M478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" t="n">
+        <v>373.9</v>
+      </c>
+      <c r="C479" t="n">
+        <v>373.9</v>
+      </c>
+      <c r="D479" t="n">
+        <v>373.9</v>
+      </c>
+      <c r="E479" t="n">
+        <v>373.9</v>
+      </c>
+      <c r="F479" t="n">
+        <v>194.9106</v>
+      </c>
+      <c r="G479" t="n">
+        <v>-222413.19245599</v>
+      </c>
+      <c r="H479" t="n">
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
+      <c r="L479" t="n">
+        <v>1</v>
+      </c>
+      <c r="M479" t="inlineStr"/>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" t="n">
+        <v>373.1</v>
+      </c>
+      <c r="C480" t="n">
+        <v>373.1</v>
+      </c>
+      <c r="D480" t="n">
+        <v>373.1</v>
+      </c>
+      <c r="E480" t="n">
+        <v>373.1</v>
+      </c>
+      <c r="F480" t="n">
+        <v>2689.3063</v>
+      </c>
+      <c r="G480" t="n">
+        <v>-225102.49875599</v>
+      </c>
+      <c r="H480" t="n">
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
+      <c r="L480" t="n">
+        <v>1</v>
+      </c>
+      <c r="M480" t="inlineStr"/>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" t="n">
+        <v>369</v>
+      </c>
+      <c r="C481" t="n">
+        <v>371.9</v>
+      </c>
+      <c r="D481" t="n">
+        <v>371.9</v>
+      </c>
+      <c r="E481" t="n">
+        <v>367</v>
+      </c>
+      <c r="F481" t="n">
+        <v>5843.3819</v>
+      </c>
+      <c r="G481" t="n">
+        <v>-230945.88065599</v>
+      </c>
+      <c r="H481" t="n">
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
+      <c r="L481" t="n">
+        <v>1</v>
+      </c>
+      <c r="M481" t="inlineStr"/>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" t="n">
+        <v>366.6</v>
+      </c>
+      <c r="C482" t="n">
+        <v>366.6</v>
+      </c>
+      <c r="D482" t="n">
+        <v>366.6</v>
+      </c>
+      <c r="E482" t="n">
+        <v>366.6</v>
+      </c>
+      <c r="F482" t="n">
+        <v>23.45</v>
+      </c>
+      <c r="G482" t="n">
+        <v>-230969.33065599</v>
+      </c>
+      <c r="H482" t="n">
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
+      <c r="L482" t="n">
+        <v>1</v>
+      </c>
+      <c r="M482" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="n">
+        <v>366.6</v>
+      </c>
+      <c r="C483" t="n">
+        <v>365</v>
+      </c>
+      <c r="D483" t="n">
+        <v>366.6</v>
+      </c>
+      <c r="E483" t="n">
+        <v>365</v>
+      </c>
+      <c r="F483" t="n">
+        <v>1698.1491</v>
+      </c>
+      <c r="G483" t="n">
+        <v>-232667.47975599</v>
+      </c>
+      <c r="H483" t="n">
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
+      <c r="L483" t="n">
+        <v>1</v>
+      </c>
+      <c r="M483" t="inlineStr"/>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="n">
+        <v>367.8</v>
+      </c>
+      <c r="C484" t="n">
+        <v>368</v>
+      </c>
+      <c r="D484" t="n">
+        <v>368</v>
+      </c>
+      <c r="E484" t="n">
+        <v>367.8</v>
+      </c>
+      <c r="F484" t="n">
+        <v>1109.7655</v>
+      </c>
+      <c r="G484" t="n">
+        <v>-231557.71425599</v>
+      </c>
+      <c r="H484" t="n">
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
+      <c r="L484" t="n">
+        <v>1</v>
+      </c>
+      <c r="M484" t="inlineStr"/>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="n">
+        <v>366.9</v>
+      </c>
+      <c r="C485" t="n">
+        <v>366.9</v>
+      </c>
+      <c r="D485" t="n">
+        <v>366.9</v>
+      </c>
+      <c r="E485" t="n">
+        <v>366.9</v>
+      </c>
+      <c r="F485" t="n">
+        <v>835.0780999999999</v>
+      </c>
+      <c r="G485" t="n">
+        <v>-232392.79235599</v>
+      </c>
+      <c r="H485" t="n">
+        <v>0</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
+      <c r="L485" t="n">
+        <v>1</v>
+      </c>
+      <c r="M485" t="inlineStr"/>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="n">
+        <v>366.8</v>
+      </c>
+      <c r="C486" t="n">
+        <v>366.8</v>
+      </c>
+      <c r="D486" t="n">
+        <v>366.8</v>
+      </c>
+      <c r="E486" t="n">
+        <v>366.8</v>
+      </c>
+      <c r="F486" t="n">
+        <v>507.3757</v>
+      </c>
+      <c r="G486" t="n">
+        <v>-232900.16805599</v>
+      </c>
+      <c r="H486" t="n">
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
+      <c r="L486" t="n">
+        <v>1</v>
+      </c>
+      <c r="M486" t="inlineStr"/>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" t="n">
+        <v>366.8</v>
+      </c>
+      <c r="C487" t="n">
+        <v>365</v>
+      </c>
+      <c r="D487" t="n">
+        <v>366.8</v>
+      </c>
+      <c r="E487" t="n">
+        <v>364</v>
+      </c>
+      <c r="F487" t="n">
+        <v>912.0559</v>
+      </c>
+      <c r="G487" t="n">
+        <v>-233812.22395599</v>
+      </c>
+      <c r="H487" t="n">
+        <v>0</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
+      <c r="L487" t="n">
+        <v>1</v>
+      </c>
+      <c r="M487" t="inlineStr"/>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" t="n">
+        <v>365.9</v>
+      </c>
+      <c r="C488" t="n">
+        <v>365.9</v>
+      </c>
+      <c r="D488" t="n">
+        <v>365.9</v>
+      </c>
+      <c r="E488" t="n">
+        <v>365.9</v>
+      </c>
+      <c r="F488" t="n">
+        <v>423.52555342</v>
+      </c>
+      <c r="G488" t="n">
+        <v>-233388.69840257</v>
+      </c>
+      <c r="H488" t="n">
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>365</v>
+      </c>
+      <c r="J488" t="n">
+        <v>365</v>
+      </c>
+      <c r="K488" t="inlineStr"/>
+      <c r="L488" t="n">
+        <v>1</v>
+      </c>
+      <c r="M488" t="inlineStr"/>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" t="n">
+        <v>365</v>
+      </c>
+      <c r="C489" t="n">
+        <v>367</v>
+      </c>
+      <c r="D489" t="n">
+        <v>367</v>
+      </c>
+      <c r="E489" t="n">
+        <v>365</v>
+      </c>
+      <c r="F489" t="n">
+        <v>100.7429</v>
+      </c>
+      <c r="G489" t="n">
+        <v>-233287.95550257</v>
+      </c>
+      <c r="H489" t="n">
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>365.9</v>
+      </c>
+      <c r="J489" t="n">
+        <v>365</v>
+      </c>
+      <c r="K489" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L450" t="n">
-        <v>1</v>
-      </c>
-      <c r="M450" t="inlineStr"/>
-    </row>
-    <row r="451">
-      <c r="A451" s="1" t="n">
-        <v>449</v>
-      </c>
-      <c r="B451" t="n">
-        <v>380.8</v>
-      </c>
-      <c r="C451" t="n">
-        <v>381</v>
-      </c>
-      <c r="D451" t="n">
-        <v>381</v>
-      </c>
-      <c r="E451" t="n">
-        <v>380.8</v>
-      </c>
-      <c r="F451" t="n">
-        <v>27.9631</v>
-      </c>
-      <c r="G451" t="n">
-        <v>-214835.77335599</v>
-      </c>
-      <c r="H451" t="n">
-        <v>1</v>
-      </c>
-      <c r="I451" t="n">
-        <v>380.8</v>
-      </c>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L451" t="n">
-        <v>1</v>
-      </c>
-      <c r="M451" t="inlineStr"/>
-    </row>
-    <row r="452">
-      <c r="A452" s="1" t="n">
-        <v>450</v>
-      </c>
-      <c r="B452" t="n">
-        <v>380.8</v>
-      </c>
-      <c r="C452" t="n">
-        <v>374</v>
-      </c>
-      <c r="D452" t="n">
-        <v>380.8</v>
-      </c>
-      <c r="E452" t="n">
-        <v>374</v>
-      </c>
-      <c r="F452" t="n">
-        <v>1924.2861</v>
-      </c>
-      <c r="G452" t="n">
-        <v>-216760.05945599</v>
-      </c>
-      <c r="H452" t="n">
-        <v>1</v>
-      </c>
-      <c r="I452" t="n">
-        <v>381</v>
-      </c>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L452" t="n">
-        <v>1</v>
-      </c>
-      <c r="M452" t="inlineStr"/>
-    </row>
-    <row r="453">
-      <c r="A453" s="1" t="n">
-        <v>451</v>
-      </c>
-      <c r="B453" t="n">
-        <v>375</v>
-      </c>
-      <c r="C453" t="n">
-        <v>375</v>
-      </c>
-      <c r="D453" t="n">
-        <v>375</v>
-      </c>
-      <c r="E453" t="n">
-        <v>375</v>
-      </c>
-      <c r="F453" t="n">
-        <v>5632.7241</v>
-      </c>
-      <c r="G453" t="n">
-        <v>-211127.33535599</v>
-      </c>
-      <c r="H453" t="n">
-        <v>1</v>
-      </c>
-      <c r="I453" t="n">
-        <v>374</v>
-      </c>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L453" t="n">
-        <v>1</v>
-      </c>
-      <c r="M453" t="inlineStr"/>
-    </row>
-    <row r="454">
-      <c r="A454" s="1" t="n">
-        <v>452</v>
-      </c>
-      <c r="B454" t="n">
-        <v>375.2</v>
-      </c>
-      <c r="C454" t="n">
-        <v>375.1</v>
-      </c>
-      <c r="D454" t="n">
-        <v>375.2</v>
-      </c>
-      <c r="E454" t="n">
-        <v>375.1</v>
-      </c>
-      <c r="F454" t="n">
-        <v>2503.443</v>
-      </c>
-      <c r="G454" t="n">
-        <v>-208623.89235599</v>
-      </c>
-      <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="n">
-        <v>375</v>
-      </c>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L454" t="n">
-        <v>1</v>
-      </c>
-      <c r="M454" t="inlineStr"/>
-    </row>
-    <row r="455">
-      <c r="A455" s="1" t="n">
-        <v>453</v>
-      </c>
-      <c r="B455" t="n">
-        <v>375.1</v>
-      </c>
-      <c r="C455" t="n">
-        <v>375</v>
-      </c>
-      <c r="D455" t="n">
-        <v>375.1</v>
-      </c>
-      <c r="E455" t="n">
-        <v>375</v>
-      </c>
-      <c r="F455" t="n">
-        <v>4963.3332</v>
-      </c>
-      <c r="G455" t="n">
-        <v>-213587.22555599</v>
-      </c>
-      <c r="H455" t="n">
-        <v>1</v>
-      </c>
-      <c r="I455" t="n">
-        <v>375.1</v>
-      </c>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L455" t="n">
-        <v>1</v>
-      </c>
-      <c r="M455" t="inlineStr"/>
-    </row>
-    <row r="456">
-      <c r="A456" s="1" t="n">
-        <v>454</v>
-      </c>
-      <c r="B456" t="n">
-        <v>374</v>
-      </c>
-      <c r="C456" t="n">
-        <v>374</v>
-      </c>
-      <c r="D456" t="n">
-        <v>374</v>
-      </c>
-      <c r="E456" t="n">
-        <v>374</v>
-      </c>
-      <c r="F456" t="n">
-        <v>345.713</v>
-      </c>
-      <c r="G456" t="n">
-        <v>-213932.93855599</v>
-      </c>
-      <c r="H456" t="n">
-        <v>1</v>
-      </c>
-      <c r="I456" t="n">
-        <v>375</v>
-      </c>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L456" t="n">
-        <v>1</v>
-      </c>
-      <c r="M456" t="inlineStr"/>
-    </row>
-    <row r="457">
-      <c r="A457" s="1" t="n">
-        <v>455</v>
-      </c>
-      <c r="B457" t="n">
-        <v>372.8</v>
-      </c>
-      <c r="C457" t="n">
-        <v>372.3</v>
-      </c>
-      <c r="D457" t="n">
-        <v>372.8</v>
-      </c>
-      <c r="E457" t="n">
-        <v>372.3</v>
-      </c>
-      <c r="F457" t="n">
-        <v>315.7405</v>
-      </c>
-      <c r="G457" t="n">
-        <v>-214248.67905599</v>
-      </c>
-      <c r="H457" t="n">
-        <v>1</v>
-      </c>
-      <c r="I457" t="n">
-        <v>374</v>
-      </c>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L457" t="n">
-        <v>1</v>
-      </c>
-      <c r="M457" t="inlineStr"/>
-    </row>
-    <row r="458">
-      <c r="A458" s="1" t="n">
-        <v>456</v>
-      </c>
-      <c r="B458" t="n">
-        <v>371.7</v>
-      </c>
-      <c r="C458" t="n">
-        <v>369.1</v>
-      </c>
-      <c r="D458" t="n">
-        <v>371.7</v>
-      </c>
-      <c r="E458" t="n">
-        <v>369.1</v>
-      </c>
-      <c r="F458" t="n">
-        <v>946.1808</v>
-      </c>
-      <c r="G458" t="n">
-        <v>-215194.85985599</v>
-      </c>
-      <c r="H458" t="n">
-        <v>1</v>
-      </c>
-      <c r="I458" t="n">
-        <v>372.3</v>
-      </c>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L458" t="n">
-        <v>1</v>
-      </c>
-      <c r="M458" t="inlineStr"/>
-    </row>
-    <row r="459">
-      <c r="A459" s="1" t="n">
-        <v>457</v>
-      </c>
-      <c r="B459" t="n">
-        <v>369.1</v>
-      </c>
-      <c r="C459" t="n">
-        <v>369.1</v>
-      </c>
-      <c r="D459" t="n">
-        <v>369.1</v>
-      </c>
-      <c r="E459" t="n">
-        <v>369.1</v>
-      </c>
-      <c r="F459" t="n">
-        <v>828.8745</v>
-      </c>
-      <c r="G459" t="n">
-        <v>-215194.85985599</v>
-      </c>
-      <c r="H459" t="n">
-        <v>1</v>
-      </c>
-      <c r="I459" t="n">
-        <v>369.1</v>
-      </c>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L459" t="n">
-        <v>1</v>
-      </c>
-      <c r="M459" t="inlineStr"/>
-    </row>
-    <row r="460">
-      <c r="A460" s="1" t="n">
-        <v>458</v>
-      </c>
-      <c r="B460" t="n">
-        <v>370.8</v>
-      </c>
-      <c r="C460" t="n">
-        <v>373</v>
-      </c>
-      <c r="D460" t="n">
-        <v>373</v>
-      </c>
-      <c r="E460" t="n">
-        <v>370.8</v>
-      </c>
-      <c r="F460" t="n">
-        <v>620</v>
-      </c>
-      <c r="G460" t="n">
-        <v>-214574.85985599</v>
-      </c>
-      <c r="H460" t="n">
-        <v>1</v>
-      </c>
-      <c r="I460" t="n">
-        <v>369.1</v>
-      </c>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L460" t="n">
-        <v>1</v>
-      </c>
-      <c r="M460" t="inlineStr"/>
-    </row>
-    <row r="461">
-      <c r="A461" s="1" t="n">
-        <v>459</v>
-      </c>
-      <c r="B461" t="n">
-        <v>372.6</v>
-      </c>
-      <c r="C461" t="n">
-        <v>369.1</v>
-      </c>
-      <c r="D461" t="n">
-        <v>374</v>
-      </c>
-      <c r="E461" t="n">
-        <v>369.1</v>
-      </c>
-      <c r="F461" t="n">
-        <v>5655.1233</v>
-      </c>
-      <c r="G461" t="n">
-        <v>-220229.98315599</v>
-      </c>
-      <c r="H461" t="n">
-        <v>1</v>
-      </c>
-      <c r="I461" t="n">
-        <v>373</v>
-      </c>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L461" t="n">
-        <v>1</v>
-      </c>
-      <c r="M461" t="inlineStr"/>
-    </row>
-    <row r="462">
-      <c r="A462" s="1" t="n">
-        <v>460</v>
-      </c>
-      <c r="B462" t="n">
-        <v>369.1</v>
-      </c>
-      <c r="C462" t="n">
-        <v>368.1</v>
-      </c>
-      <c r="D462" t="n">
-        <v>369.1</v>
-      </c>
-      <c r="E462" t="n">
-        <v>368.1</v>
-      </c>
-      <c r="F462" t="n">
-        <v>2987.5256</v>
-      </c>
-      <c r="G462" t="n">
-        <v>-223217.50875599</v>
-      </c>
-      <c r="H462" t="n">
-        <v>1</v>
-      </c>
-      <c r="I462" t="n">
-        <v>369.1</v>
-      </c>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L462" t="n">
-        <v>1</v>
-      </c>
-      <c r="M462" t="inlineStr"/>
-    </row>
-    <row r="463">
-      <c r="A463" s="1" t="n">
-        <v>461</v>
-      </c>
-      <c r="B463" t="n">
-        <v>369.1</v>
-      </c>
-      <c r="C463" t="n">
-        <v>368.1</v>
-      </c>
-      <c r="D463" t="n">
-        <v>369.1</v>
-      </c>
-      <c r="E463" t="n">
-        <v>368.1</v>
-      </c>
-      <c r="F463" t="n">
-        <v>852</v>
-      </c>
-      <c r="G463" t="n">
-        <v>-223217.50875599</v>
-      </c>
-      <c r="H463" t="n">
-        <v>1</v>
-      </c>
-      <c r="I463" t="n">
-        <v>368.1</v>
-      </c>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L463" t="n">
-        <v>1</v>
-      </c>
-      <c r="M463" t="inlineStr"/>
-    </row>
-    <row r="464">
-      <c r="A464" s="1" t="n">
-        <v>462</v>
-      </c>
-      <c r="B464" t="n">
-        <v>369.1</v>
-      </c>
-      <c r="C464" t="n">
-        <v>369.1</v>
-      </c>
-      <c r="D464" t="n">
-        <v>369.1</v>
-      </c>
-      <c r="E464" t="n">
-        <v>369.1</v>
-      </c>
-      <c r="F464" t="n">
-        <v>1042.43</v>
-      </c>
-      <c r="G464" t="n">
-        <v>-222175.07875599</v>
-      </c>
-      <c r="H464" t="n">
-        <v>1</v>
-      </c>
-      <c r="I464" t="n">
-        <v>368.1</v>
-      </c>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L464" t="n">
-        <v>1</v>
-      </c>
-      <c r="M464" t="inlineStr"/>
-    </row>
-    <row r="465">
-      <c r="A465" s="1" t="n">
-        <v>463</v>
-      </c>
-      <c r="B465" t="n">
-        <v>370</v>
-      </c>
-      <c r="C465" t="n">
-        <v>374.5</v>
-      </c>
-      <c r="D465" t="n">
-        <v>374.5</v>
-      </c>
-      <c r="E465" t="n">
-        <v>370</v>
-      </c>
-      <c r="F465" t="n">
-        <v>675.1976</v>
-      </c>
-      <c r="G465" t="n">
-        <v>-221499.88115599</v>
-      </c>
-      <c r="H465" t="n">
-        <v>1</v>
-      </c>
-      <c r="I465" t="n">
-        <v>369.1</v>
-      </c>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L465" t="n">
-        <v>1</v>
-      </c>
-      <c r="M465" t="inlineStr"/>
-    </row>
-    <row r="466">
-      <c r="A466" s="1" t="n">
-        <v>464</v>
-      </c>
-      <c r="B466" t="n">
-        <v>374.5</v>
-      </c>
-      <c r="C466" t="n">
-        <v>373.5</v>
-      </c>
-      <c r="D466" t="n">
-        <v>374.5</v>
-      </c>
-      <c r="E466" t="n">
-        <v>373.4</v>
-      </c>
-      <c r="F466" t="n">
-        <v>2133.2649</v>
-      </c>
-      <c r="G466" t="n">
-        <v>-223633.14605599</v>
-      </c>
-      <c r="H466" t="n">
-        <v>1</v>
-      </c>
-      <c r="I466" t="n">
-        <v>374.5</v>
-      </c>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L466" t="n">
-        <v>1</v>
-      </c>
-      <c r="M466" t="inlineStr"/>
-    </row>
-    <row r="467">
-      <c r="A467" s="1" t="n">
-        <v>465</v>
-      </c>
-      <c r="B467" t="n">
-        <v>373.5</v>
-      </c>
-      <c r="C467" t="n">
-        <v>373.5</v>
-      </c>
-      <c r="D467" t="n">
-        <v>373.5</v>
-      </c>
-      <c r="E467" t="n">
-        <v>373.5</v>
-      </c>
-      <c r="F467" t="n">
-        <v>12.0041</v>
-      </c>
-      <c r="G467" t="n">
-        <v>-223633.14605599</v>
-      </c>
-      <c r="H467" t="n">
-        <v>1</v>
-      </c>
-      <c r="I467" t="n">
-        <v>373.5</v>
-      </c>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L467" t="n">
-        <v>1</v>
-      </c>
-      <c r="M467" t="inlineStr"/>
-    </row>
-    <row r="468">
-      <c r="A468" s="1" t="n">
-        <v>466</v>
-      </c>
-      <c r="B468" t="n">
-        <v>373</v>
-      </c>
-      <c r="C468" t="n">
-        <v>373.3</v>
-      </c>
-      <c r="D468" t="n">
-        <v>373.3</v>
-      </c>
-      <c r="E468" t="n">
-        <v>372.9</v>
-      </c>
-      <c r="F468" t="n">
-        <v>427.1493</v>
-      </c>
-      <c r="G468" t="n">
-        <v>-224060.29535599</v>
-      </c>
-      <c r="H468" t="n">
-        <v>1</v>
-      </c>
-      <c r="I468" t="n">
-        <v>373.5</v>
-      </c>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L468" t="n">
-        <v>1</v>
-      </c>
-      <c r="M468" t="inlineStr"/>
-    </row>
-    <row r="469">
-      <c r="A469" s="1" t="n">
-        <v>467</v>
-      </c>
-      <c r="B469" t="n">
-        <v>372.8</v>
-      </c>
-      <c r="C469" t="n">
-        <v>372.8</v>
-      </c>
-      <c r="D469" t="n">
-        <v>372.8</v>
-      </c>
-      <c r="E469" t="n">
-        <v>372.8</v>
-      </c>
-      <c r="F469" t="n">
-        <v>482.8563</v>
-      </c>
-      <c r="G469" t="n">
-        <v>-224543.15165599</v>
-      </c>
-      <c r="H469" t="n">
-        <v>1</v>
-      </c>
-      <c r="I469" t="n">
-        <v>373.3</v>
-      </c>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L469" t="n">
-        <v>1</v>
-      </c>
-      <c r="M469" t="inlineStr"/>
-    </row>
-    <row r="470">
-      <c r="A470" s="1" t="n">
-        <v>468</v>
-      </c>
-      <c r="B470" t="n">
-        <v>373</v>
-      </c>
-      <c r="C470" t="n">
-        <v>373.4</v>
-      </c>
-      <c r="D470" t="n">
-        <v>373.4</v>
-      </c>
-      <c r="E470" t="n">
-        <v>373</v>
-      </c>
-      <c r="F470" t="n">
-        <v>253.371</v>
-      </c>
-      <c r="G470" t="n">
-        <v>-224289.78065599</v>
-      </c>
-      <c r="H470" t="n">
-        <v>1</v>
-      </c>
-      <c r="I470" t="n">
-        <v>372.8</v>
-      </c>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L470" t="n">
-        <v>1</v>
-      </c>
-      <c r="M470" t="inlineStr"/>
-    </row>
-    <row r="471">
-      <c r="A471" s="1" t="n">
-        <v>469</v>
-      </c>
-      <c r="B471" t="n">
-        <v>373.4</v>
-      </c>
-      <c r="C471" t="n">
-        <v>373.5</v>
-      </c>
-      <c r="D471" t="n">
-        <v>373.5</v>
-      </c>
-      <c r="E471" t="n">
-        <v>373.4</v>
-      </c>
-      <c r="F471" t="n">
-        <v>533.1464</v>
-      </c>
-      <c r="G471" t="n">
-        <v>-223756.63425599</v>
-      </c>
-      <c r="H471" t="n">
-        <v>1</v>
-      </c>
-      <c r="I471" t="n">
-        <v>373.4</v>
-      </c>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L471" t="n">
-        <v>1</v>
-      </c>
-      <c r="M471" t="inlineStr"/>
-    </row>
-    <row r="472">
-      <c r="A472" s="1" t="n">
-        <v>470</v>
-      </c>
-      <c r="B472" t="n">
-        <v>373.5</v>
-      </c>
-      <c r="C472" t="n">
-        <v>373.5</v>
-      </c>
-      <c r="D472" t="n">
-        <v>373.5</v>
-      </c>
-      <c r="E472" t="n">
-        <v>373.5</v>
-      </c>
-      <c r="F472" t="n">
-        <v>4925.7562</v>
-      </c>
-      <c r="G472" t="n">
-        <v>-223756.63425599</v>
-      </c>
-      <c r="H472" t="n">
-        <v>1</v>
-      </c>
-      <c r="I472" t="n">
-        <v>373.5</v>
-      </c>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L472" t="n">
-        <v>1</v>
-      </c>
-      <c r="M472" t="inlineStr"/>
-    </row>
-    <row r="473">
-      <c r="A473" s="1" t="n">
-        <v>471</v>
-      </c>
-      <c r="B473" t="n">
-        <v>372.8</v>
-      </c>
-      <c r="C473" t="n">
-        <v>372.8</v>
-      </c>
-      <c r="D473" t="n">
-        <v>372.8</v>
-      </c>
-      <c r="E473" t="n">
-        <v>372.8</v>
-      </c>
-      <c r="F473" t="n">
-        <v>491.175</v>
-      </c>
-      <c r="G473" t="n">
-        <v>-224247.80925599</v>
-      </c>
-      <c r="H473" t="n">
-        <v>1</v>
-      </c>
-      <c r="I473" t="n">
-        <v>373.5</v>
-      </c>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L473" t="n">
-        <v>1</v>
-      </c>
-      <c r="M473" t="inlineStr"/>
-    </row>
-    <row r="474">
-      <c r="A474" s="1" t="n">
-        <v>472</v>
-      </c>
-      <c r="B474" t="n">
-        <v>372.7</v>
-      </c>
-      <c r="C474" t="n">
-        <v>372.7</v>
-      </c>
-      <c r="D474" t="n">
-        <v>372.7</v>
-      </c>
-      <c r="E474" t="n">
-        <v>372.7</v>
-      </c>
-      <c r="F474" t="n">
-        <v>419.9999</v>
-      </c>
-      <c r="G474" t="n">
-        <v>-224667.80915599</v>
-      </c>
-      <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L474" t="n">
-        <v>1</v>
-      </c>
-      <c r="M474" t="inlineStr"/>
-    </row>
-    <row r="475">
-      <c r="A475" s="1" t="n">
-        <v>473</v>
-      </c>
-      <c r="B475" t="n">
-        <v>372.7</v>
-      </c>
-      <c r="C475" t="n">
-        <v>373.3</v>
-      </c>
-      <c r="D475" t="n">
-        <v>373.3</v>
-      </c>
-      <c r="E475" t="n">
-        <v>372.7</v>
-      </c>
-      <c r="F475" t="n">
-        <v>223.0516</v>
-      </c>
-      <c r="G475" t="n">
-        <v>-224444.75755599</v>
-      </c>
-      <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L475" t="n">
-        <v>1</v>
-      </c>
-      <c r="M475" t="inlineStr"/>
-    </row>
-    <row r="476">
-      <c r="A476" s="1" t="n">
-        <v>474</v>
-      </c>
-      <c r="B476" t="n">
-        <v>370</v>
-      </c>
-      <c r="C476" t="n">
-        <v>372</v>
-      </c>
-      <c r="D476" t="n">
-        <v>372</v>
-      </c>
-      <c r="E476" t="n">
-        <v>368</v>
-      </c>
-      <c r="F476" t="n">
-        <v>2537.6574</v>
-      </c>
-      <c r="G476" t="n">
-        <v>-226982.41495599</v>
-      </c>
-      <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L476" t="n">
-        <v>1</v>
-      </c>
-      <c r="M476" t="inlineStr"/>
-    </row>
-    <row r="477">
-      <c r="A477" s="1" t="n">
-        <v>475</v>
-      </c>
-      <c r="B477" t="n">
-        <v>372</v>
-      </c>
-      <c r="C477" t="n">
-        <v>372</v>
-      </c>
-      <c r="D477" t="n">
-        <v>372</v>
-      </c>
-      <c r="E477" t="n">
-        <v>372</v>
-      </c>
-      <c r="F477" t="n">
-        <v>307.4828</v>
-      </c>
-      <c r="G477" t="n">
-        <v>-226982.41495599</v>
-      </c>
-      <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L477" t="n">
-        <v>1</v>
-      </c>
-      <c r="M477" t="inlineStr"/>
-    </row>
-    <row r="478">
-      <c r="A478" s="1" t="n">
-        <v>476</v>
-      </c>
-      <c r="B478" t="n">
-        <v>372</v>
-      </c>
-      <c r="C478" t="n">
-        <v>373.6</v>
-      </c>
-      <c r="D478" t="n">
-        <v>373.6</v>
-      </c>
-      <c r="E478" t="n">
-        <v>371.9</v>
-      </c>
-      <c r="F478" t="n">
-        <v>4374.3119</v>
-      </c>
-      <c r="G478" t="n">
-        <v>-222608.10305599</v>
-      </c>
-      <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L478" t="n">
-        <v>1</v>
-      </c>
-      <c r="M478" t="inlineStr"/>
-    </row>
-    <row r="479">
-      <c r="A479" s="1" t="n">
-        <v>477</v>
-      </c>
-      <c r="B479" t="n">
-        <v>373.9</v>
-      </c>
-      <c r="C479" t="n">
-        <v>373.9</v>
-      </c>
-      <c r="D479" t="n">
-        <v>373.9</v>
-      </c>
-      <c r="E479" t="n">
-        <v>373.9</v>
-      </c>
-      <c r="F479" t="n">
-        <v>194.9106</v>
-      </c>
-      <c r="G479" t="n">
-        <v>-222413.19245599</v>
-      </c>
-      <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L479" t="n">
-        <v>1</v>
-      </c>
-      <c r="M479" t="inlineStr"/>
-    </row>
-    <row r="480">
-      <c r="A480" s="1" t="n">
-        <v>478</v>
-      </c>
-      <c r="B480" t="n">
-        <v>373.1</v>
-      </c>
-      <c r="C480" t="n">
-        <v>373.1</v>
-      </c>
-      <c r="D480" t="n">
-        <v>373.1</v>
-      </c>
-      <c r="E480" t="n">
-        <v>373.1</v>
-      </c>
-      <c r="F480" t="n">
-        <v>2689.3063</v>
-      </c>
-      <c r="G480" t="n">
-        <v>-225102.49875599</v>
-      </c>
-      <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L480" t="n">
-        <v>1</v>
-      </c>
-      <c r="M480" t="inlineStr"/>
-    </row>
-    <row r="481">
-      <c r="A481" s="1" t="n">
-        <v>479</v>
-      </c>
-      <c r="B481" t="n">
-        <v>369</v>
-      </c>
-      <c r="C481" t="n">
-        <v>371.9</v>
-      </c>
-      <c r="D481" t="n">
-        <v>371.9</v>
-      </c>
-      <c r="E481" t="n">
-        <v>367</v>
-      </c>
-      <c r="F481" t="n">
-        <v>5843.3819</v>
-      </c>
-      <c r="G481" t="n">
-        <v>-230945.88065599</v>
-      </c>
-      <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L481" t="n">
-        <v>1</v>
-      </c>
-      <c r="M481" t="inlineStr"/>
-    </row>
-    <row r="482">
-      <c r="A482" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="B482" t="n">
-        <v>366.6</v>
-      </c>
-      <c r="C482" t="n">
-        <v>366.6</v>
-      </c>
-      <c r="D482" t="n">
-        <v>366.6</v>
-      </c>
-      <c r="E482" t="n">
-        <v>366.6</v>
-      </c>
-      <c r="F482" t="n">
-        <v>23.45</v>
-      </c>
-      <c r="G482" t="n">
-        <v>-230969.33065599</v>
-      </c>
-      <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L482" t="n">
-        <v>1</v>
-      </c>
-      <c r="M482" t="inlineStr"/>
-    </row>
-    <row r="483">
-      <c r="A483" s="1" t="n">
-        <v>481</v>
-      </c>
-      <c r="B483" t="n">
-        <v>366.6</v>
-      </c>
-      <c r="C483" t="n">
-        <v>365</v>
-      </c>
-      <c r="D483" t="n">
-        <v>366.6</v>
-      </c>
-      <c r="E483" t="n">
-        <v>365</v>
-      </c>
-      <c r="F483" t="n">
-        <v>1698.1491</v>
-      </c>
-      <c r="G483" t="n">
-        <v>-232667.47975599</v>
-      </c>
-      <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L483" t="n">
-        <v>1</v>
-      </c>
-      <c r="M483" t="inlineStr"/>
-    </row>
-    <row r="484">
-      <c r="A484" s="1" t="n">
-        <v>482</v>
-      </c>
-      <c r="B484" t="n">
-        <v>367.8</v>
-      </c>
-      <c r="C484" t="n">
-        <v>368</v>
-      </c>
-      <c r="D484" t="n">
-        <v>368</v>
-      </c>
-      <c r="E484" t="n">
-        <v>367.8</v>
-      </c>
-      <c r="F484" t="n">
-        <v>1109.7655</v>
-      </c>
-      <c r="G484" t="n">
-        <v>-231557.71425599</v>
-      </c>
-      <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L484" t="n">
-        <v>1</v>
-      </c>
-      <c r="M484" t="inlineStr"/>
-    </row>
-    <row r="485">
-      <c r="A485" s="1" t="n">
-        <v>483</v>
-      </c>
-      <c r="B485" t="n">
-        <v>366.9</v>
-      </c>
-      <c r="C485" t="n">
-        <v>366.9</v>
-      </c>
-      <c r="D485" t="n">
-        <v>366.9</v>
-      </c>
-      <c r="E485" t="n">
-        <v>366.9</v>
-      </c>
-      <c r="F485" t="n">
-        <v>835.0780999999999</v>
-      </c>
-      <c r="G485" t="n">
-        <v>-232392.79235599</v>
-      </c>
-      <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L485" t="n">
-        <v>1</v>
-      </c>
-      <c r="M485" t="inlineStr"/>
-    </row>
-    <row r="486">
-      <c r="A486" s="1" t="n">
-        <v>484</v>
-      </c>
-      <c r="B486" t="n">
-        <v>366.8</v>
-      </c>
-      <c r="C486" t="n">
-        <v>366.8</v>
-      </c>
-      <c r="D486" t="n">
-        <v>366.8</v>
-      </c>
-      <c r="E486" t="n">
-        <v>366.8</v>
-      </c>
-      <c r="F486" t="n">
-        <v>507.3757</v>
-      </c>
-      <c r="G486" t="n">
-        <v>-232900.16805599</v>
-      </c>
-      <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L486" t="n">
-        <v>1</v>
-      </c>
-      <c r="M486" t="inlineStr"/>
-    </row>
-    <row r="487">
-      <c r="A487" s="1" t="n">
-        <v>485</v>
-      </c>
-      <c r="B487" t="n">
-        <v>366.8</v>
-      </c>
-      <c r="C487" t="n">
-        <v>365</v>
-      </c>
-      <c r="D487" t="n">
-        <v>366.8</v>
-      </c>
-      <c r="E487" t="n">
-        <v>364</v>
-      </c>
-      <c r="F487" t="n">
-        <v>912.0559</v>
-      </c>
-      <c r="G487" t="n">
-        <v>-233812.22395599</v>
-      </c>
-      <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L487" t="n">
-        <v>1</v>
-      </c>
-      <c r="M487" t="inlineStr"/>
-    </row>
-    <row r="488">
-      <c r="A488" s="1" t="n">
-        <v>486</v>
-      </c>
-      <c r="B488" t="n">
-        <v>365.9</v>
-      </c>
-      <c r="C488" t="n">
-        <v>365.9</v>
-      </c>
-      <c r="D488" t="n">
-        <v>365.9</v>
-      </c>
-      <c r="E488" t="n">
-        <v>365.9</v>
-      </c>
-      <c r="F488" t="n">
-        <v>423.52555342</v>
-      </c>
-      <c r="G488" t="n">
-        <v>-233388.69840257</v>
-      </c>
-      <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L488" t="n">
-        <v>1</v>
-      </c>
-      <c r="M488" t="inlineStr"/>
-    </row>
-    <row r="489">
-      <c r="A489" s="1" t="n">
-        <v>487</v>
-      </c>
-      <c r="B489" t="n">
-        <v>365</v>
-      </c>
-      <c r="C489" t="n">
-        <v>367</v>
-      </c>
-      <c r="D489" t="n">
-        <v>367</v>
-      </c>
-      <c r="E489" t="n">
-        <v>365</v>
-      </c>
-      <c r="F489" t="n">
-        <v>100.7429</v>
-      </c>
-      <c r="G489" t="n">
-        <v>-233287.95550257</v>
-      </c>
-      <c r="H489" t="n">
-        <v>1</v>
-      </c>
-      <c r="I489" t="n">
-        <v>365.9</v>
-      </c>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16770,7 +16572,9 @@
       <c r="I490" t="n">
         <v>367</v>
       </c>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>365</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16809,7 +16613,9 @@
       <c r="I491" t="n">
         <v>366.8</v>
       </c>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>365</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16848,7 +16654,9 @@
       <c r="I492" t="n">
         <v>366.9</v>
       </c>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>365</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16887,7 +16695,9 @@
       <c r="I493" t="n">
         <v>367.9</v>
       </c>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>365</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16926,7 +16736,9 @@
       <c r="I494" t="n">
         <v>367</v>
       </c>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>365</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16965,7 +16777,9 @@
       <c r="I495" t="n">
         <v>367.8</v>
       </c>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>365</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16999,10 +16813,14 @@
         <v>-233316.96410257</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>379.1</v>
+      </c>
+      <c r="J496" t="n">
+        <v>365</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17036,10 +16854,14 @@
         <v>-233047.57410257</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>369</v>
+      </c>
+      <c r="J497" t="n">
+        <v>365</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17073,10 +16895,14 @@
         <v>-233047.57410257</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="J498" t="n">
+        <v>365</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17110,10 +16936,14 @@
         <v>-233788.57410257</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="J499" t="n">
+        <v>365</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17147,10 +16977,14 @@
         <v>-233777.57410257</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>369.8</v>
+      </c>
+      <c r="J500" t="n">
+        <v>365</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17184,10 +17018,14 @@
         <v>-234346.65210257</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>374.9</v>
+      </c>
+      <c r="J501" t="n">
+        <v>365</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17221,10 +17059,14 @@
         <v>-234092.77750257</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>370.2</v>
+      </c>
+      <c r="J502" t="n">
+        <v>365</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17258,10 +17100,14 @@
         <v>-238384.98700257</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>372.3</v>
+      </c>
+      <c r="J503" t="n">
+        <v>365</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17295,10 +17141,14 @@
         <v>-238379.98700257</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>372.2</v>
+      </c>
+      <c r="J504" t="n">
+        <v>365</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
